--- a/data/lineconstraints.xlsx
+++ b/data/lineconstraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linaabedisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linaabedisa/Documents/GitHub/AMO-Single-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A76C18-9954-0344-B2E4-430A1290967B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734E48A-3CE6-BF4C-9B10-40ABD3FF1D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35760" yWindow="2060" windowWidth="27840" windowHeight="15780" xr2:uid="{748E2C40-EA6D-5E41-B122-1148A571809D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17360" windowHeight="16180" xr2:uid="{748E2C40-EA6D-5E41-B122-1148A571809D}"/>
   </bookViews>
   <sheets>
     <sheet name="lineconstraints" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -56,75 +56,39 @@
     <t>l1</t>
   </si>
   <si>
-    <t>0.0146</t>
-  </si>
-  <si>
     <t>l2</t>
   </si>
   <si>
-    <t>0.2253</t>
-  </si>
-  <si>
     <t>l3</t>
   </si>
   <si>
-    <t>0.907</t>
-  </si>
-  <si>
     <t>l4</t>
   </si>
   <si>
-    <t>0.1356</t>
-  </si>
-  <si>
     <t>l5</t>
   </si>
   <si>
-    <t>0.205</t>
-  </si>
-  <si>
     <t>l6</t>
   </si>
   <si>
-    <t>0.1271</t>
-  </si>
-  <si>
     <t>l7</t>
   </si>
   <si>
-    <t>0.084</t>
-  </si>
-  <si>
     <t>l8</t>
   </si>
   <si>
-    <t>0.111</t>
-  </si>
-  <si>
     <t>l9</t>
   </si>
   <si>
-    <t>0.094</t>
-  </si>
-  <si>
     <t>l10</t>
   </si>
   <si>
-    <t>0.0642</t>
-  </si>
-  <si>
     <t>l11</t>
   </si>
   <si>
-    <t>0.0652</t>
-  </si>
-  <si>
     <t>l12</t>
   </si>
   <si>
-    <t>0.1762</t>
-  </si>
-  <si>
     <t>l13</t>
   </si>
   <si>
@@ -143,100 +107,52 @@
     <t>l18</t>
   </si>
   <si>
-    <t>0.0488</t>
-  </si>
-  <si>
     <t>l19</t>
   </si>
   <si>
-    <t>0.0426</t>
-  </si>
-  <si>
     <t>l20</t>
   </si>
   <si>
     <t>l21</t>
   </si>
   <si>
-    <t>0.0985</t>
-  </si>
-  <si>
     <t>l22</t>
   </si>
   <si>
-    <t>0.0884</t>
-  </si>
-  <si>
     <t>l23</t>
   </si>
   <si>
-    <t>0.0598</t>
-  </si>
-  <si>
     <t>l24</t>
   </si>
   <si>
-    <t>0.0172</t>
-  </si>
-  <si>
     <t>l26</t>
   </si>
   <si>
-    <t>0.0249</t>
-  </si>
-  <si>
     <t>l27</t>
   </si>
   <si>
-    <t>0.0529</t>
-  </si>
-  <si>
     <t>l28</t>
   </si>
   <si>
-    <t>0.0263</t>
-  </si>
-  <si>
     <t>l29</t>
   </si>
   <si>
-    <t>0.0234</t>
-  </si>
-  <si>
     <t>l30</t>
   </si>
   <si>
-    <t>0.0143</t>
-  </si>
-  <si>
     <t>l31</t>
   </si>
   <si>
-    <t>0.1096</t>
-  </si>
-  <si>
     <t>l32</t>
   </si>
   <si>
-    <t>0.0132</t>
-  </si>
-  <si>
     <t>l33</t>
   </si>
   <si>
-    <t>0.0203</t>
-  </si>
-  <si>
     <t>l34</t>
   </si>
   <si>
-    <t>0.0112</t>
-  </si>
-  <si>
     <t>l35</t>
-  </si>
-  <si>
-    <t>0.0692</t>
   </si>
 </sst>
 </file>
@@ -591,7 +507,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,8 +539,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>1.46E-2</v>
       </c>
       <c r="E2">
         <v>175</v>
@@ -632,7 +548,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -640,8 +556,8 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3">
+        <v>0.2253</v>
       </c>
       <c r="E3">
         <v>175</v>
@@ -649,7 +565,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -657,8 +573,8 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="D4">
+        <v>0.90700000000000003</v>
       </c>
       <c r="E4">
         <v>350</v>
@@ -666,7 +582,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -674,8 +590,8 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="D5">
+        <v>0.1356</v>
       </c>
       <c r="E5">
         <v>175</v>
@@ -683,7 +599,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -691,8 +607,8 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
+      <c r="D6">
+        <v>0.20499999999999999</v>
       </c>
       <c r="E6">
         <v>175</v>
@@ -700,7 +616,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -708,8 +624,8 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
+      <c r="D7">
+        <v>0.12709999999999999</v>
       </c>
       <c r="E7">
         <v>175</v>
@@ -717,7 +633,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -725,8 +641,8 @@
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
+      <c r="D8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E8">
         <v>400</v>
@@ -734,7 +650,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -742,8 +658,8 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
+      <c r="D9">
+        <v>0.111</v>
       </c>
       <c r="E9">
         <v>175</v>
@@ -751,7 +667,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -759,8 +675,8 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
+      <c r="D10">
+        <v>9.4E-2</v>
       </c>
       <c r="E10">
         <v>350</v>
@@ -768,7 +684,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -776,8 +692,8 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
+      <c r="D11">
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="E11">
         <v>175</v>
@@ -785,7 +701,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -793,8 +709,8 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
+      <c r="D12">
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="E12">
         <v>350</v>
@@ -802,7 +718,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -810,8 +726,8 @@
       <c r="C13">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
+      <c r="D13">
+        <v>0.1762</v>
       </c>
       <c r="E13">
         <v>175</v>
@@ -819,7 +735,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -827,8 +743,8 @@
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
+      <c r="D14">
+        <v>0.1762</v>
       </c>
       <c r="E14">
         <v>175</v>
@@ -836,7 +752,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -844,8 +760,8 @@
       <c r="C15">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
+      <c r="D15">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E15">
         <v>400</v>
@@ -853,7 +769,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -861,8 +777,8 @@
       <c r="C16">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
+      <c r="D16">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -870,7 +786,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -878,8 +794,8 @@
       <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
+      <c r="D17">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -887,7 +803,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -895,8 +811,8 @@
       <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
+      <c r="D18">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E18">
         <v>400</v>
@@ -904,7 +820,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>11</v>
@@ -912,8 +828,8 @@
       <c r="C19">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
-        <v>35</v>
+      <c r="D19">
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -921,7 +837,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -929,8 +845,8 @@
       <c r="C20">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
-        <v>37</v>
+      <c r="D20">
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -938,7 +854,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -946,8 +862,8 @@
       <c r="C21">
         <v>13</v>
       </c>
-      <c r="D21" t="s">
-        <v>35</v>
+      <c r="D21">
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -955,7 +871,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -963,8 +879,8 @@
       <c r="C22">
         <v>23</v>
       </c>
-      <c r="D22" t="s">
-        <v>40</v>
+      <c r="D22">
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -972,7 +888,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -980,8 +896,8 @@
       <c r="C23">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
-        <v>42</v>
+      <c r="D23">
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="E23">
         <v>250</v>
@@ -989,7 +905,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -997,8 +913,8 @@
       <c r="C24">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
-        <v>44</v>
+      <c r="D24">
+        <v>5.9799999999999999E-2</v>
       </c>
       <c r="E24">
         <v>250</v>
@@ -1006,7 +922,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>15</v>
@@ -1014,8 +930,8 @@
       <c r="C25">
         <v>16</v>
       </c>
-      <c r="D25" t="s">
-        <v>46</v>
+      <c r="D25">
+        <v>1.72E-2</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -1023,7 +939,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -1031,8 +947,8 @@
       <c r="C26">
         <v>21</v>
       </c>
-      <c r="D26" t="s">
-        <v>48</v>
+      <c r="D26">
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="E26">
         <v>400</v>
@@ -1040,7 +956,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -1048,8 +964,8 @@
       <c r="C27">
         <v>24</v>
       </c>
-      <c r="D27" t="s">
-        <v>50</v>
+      <c r="D27">
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -1057,7 +973,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -1065,8 +981,8 @@
       <c r="C28">
         <v>17</v>
       </c>
-      <c r="D28" t="s">
-        <v>52</v>
+      <c r="D28">
+        <v>2.63E-2</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -1074,7 +990,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -1082,8 +998,8 @@
       <c r="C29">
         <v>19</v>
       </c>
-      <c r="D29" t="s">
-        <v>54</v>
+      <c r="D29">
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -1091,7 +1007,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -1099,8 +1015,8 @@
       <c r="C30">
         <v>18</v>
       </c>
-      <c r="D30" t="s">
-        <v>56</v>
+      <c r="D30">
+        <v>1.43E-2</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -1108,7 +1024,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>17</v>
@@ -1116,8 +1032,8 @@
       <c r="C31">
         <v>22</v>
       </c>
-      <c r="D31" t="s">
-        <v>58</v>
+      <c r="D31">
+        <v>0.1096</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -1125,7 +1041,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>18</v>
@@ -1133,8 +1049,8 @@
       <c r="C32">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
-        <v>60</v>
+      <c r="D32">
+        <v>1.32E-2</v>
       </c>
       <c r="E32">
         <v>1000</v>
@@ -1142,7 +1058,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>19</v>
@@ -1150,8 +1066,8 @@
       <c r="C33">
         <v>20</v>
       </c>
-      <c r="D33" t="s">
-        <v>62</v>
+      <c r="D33">
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="E33">
         <v>1000</v>
@@ -1159,7 +1075,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -1167,8 +1083,8 @@
       <c r="C34">
         <v>23</v>
       </c>
-      <c r="D34" t="s">
-        <v>64</v>
+      <c r="D34">
+        <v>1.12E-2</v>
       </c>
       <c r="E34">
         <v>1000</v>
@@ -1176,7 +1092,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>21</v>
@@ -1184,8 +1100,8 @@
       <c r="C35">
         <v>22</v>
       </c>
-      <c r="D35" t="s">
-        <v>66</v>
+      <c r="D35">
+        <v>6.9199999999999998E-2</v>
       </c>
       <c r="E35">
         <v>500</v>
